--- a/SWP/Week6/Docs/SWP_OnLineLearning_WeeklyReport.xlsx
+++ b/SWP/Week6/Docs/SWP_OnLineLearning_WeeklyReport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linh123\SWP391_Project\SWP\Week5\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linh123\SWP391_Project\SWP\Week6\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="165">
   <si>
     <t>Total Project Tracking</t>
   </si>
@@ -648,12 +648,69 @@
   <si>
     <t>Screen</t>
   </si>
+  <si>
+    <t>Courses List Edit</t>
+  </si>
+  <si>
+    <t>Course Content</t>
+  </si>
+  <si>
+    <t>New Course</t>
+  </si>
+  <si>
+    <t>Course Details Edit</t>
+  </si>
+  <si>
+    <t>Price Package Edit</t>
+  </si>
+  <si>
+    <t>Course Lessons Edit</t>
+  </si>
+  <si>
+    <t>Lesson Details Edit</t>
+  </si>
+  <si>
+    <t>Questions List Edit</t>
+  </si>
+  <si>
+    <t>Test Content</t>
+  </si>
+  <si>
+    <t>Question Details Edit</t>
+  </si>
+  <si>
+    <t>Question Import</t>
+  </si>
+  <si>
+    <t>Quizzes List Edit</t>
+  </si>
+  <si>
+    <t>Quiz Details Edit</t>
+  </si>
+  <si>
+    <t>19/06/2023</t>
+  </si>
+  <si>
+    <t>23/06/2023</t>
+  </si>
+  <si>
+    <t>22/06/2023</t>
+  </si>
+  <si>
+    <t>21/06/2023</t>
+  </si>
+  <si>
+    <t>24/06/2023</t>
+  </si>
+  <si>
+    <t>20/06/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,6 +807,20 @@
       <color rgb="FF3C78D8"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1130,7 +1201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1327,121 +1398,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -13083,19 +13048,19 @@
     <mergeCell ref="I1:Y52"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E38">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"Doing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"To Do"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Testing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Fixing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13119,7 +13084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -15853,19 +15818,19 @@
     <mergeCell ref="I1:Y52"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E41">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Doing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"To Do"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Testing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Fixing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15878,8 +15843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -15939,13 +15904,21 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="E2" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="I2" s="74"/>
       <c r="J2" s="74"/>
       <c r="K2" s="74"/>
@@ -15968,13 +15941,21 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="E3" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="I3" s="74"/>
       <c r="J3" s="74"/>
       <c r="K3" s="74"/>
@@ -15997,13 +15978,21 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="E4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="I4" s="74"/>
       <c r="J4" s="74"/>
       <c r="K4" s="74"/>
@@ -16026,13 +16015,21 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="E5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="I5" s="74"/>
       <c r="J5" s="74"/>
       <c r="K5" s="74"/>
@@ -16055,13 +16052,21 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="B6" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="E6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="I6" s="74"/>
       <c r="J6" s="74"/>
       <c r="K6" s="74"/>
@@ -16084,13 +16089,21 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="E7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="I7" s="74"/>
       <c r="J7" s="74"/>
       <c r="K7" s="74"/>
@@ -16113,13 +16126,21 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="I8" s="74"/>
       <c r="J8" s="74"/>
       <c r="K8" s="74"/>
@@ -16142,13 +16163,21 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E9" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="I9" s="74"/>
       <c r="J9" s="74"/>
       <c r="K9" s="74"/>
@@ -16171,13 +16200,21 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="E10" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="I10" s="74"/>
       <c r="J10" s="74"/>
       <c r="K10" s="74"/>
@@ -16200,13 +16237,21 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="E11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="I11" s="74"/>
       <c r="J11" s="74"/>
       <c r="K11" s="74"/>
@@ -16229,13 +16274,21 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="E12" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="I12" s="74"/>
       <c r="J12" s="74"/>
       <c r="K12" s="74"/>
@@ -16261,10 +16314,8 @@
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
       <c r="I13" s="74"/>
       <c r="J13" s="74"/>
       <c r="K13" s="74"/>
@@ -16290,10 +16341,8 @@
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="I14" s="74"/>
       <c r="J14" s="74"/>
       <c r="K14" s="74"/>
@@ -16319,10 +16368,8 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="I15" s="74"/>
       <c r="J15" s="74"/>
       <c r="K15" s="74"/>
@@ -16348,10 +16395,8 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
       <c r="I16" s="74"/>
       <c r="J16" s="74"/>
       <c r="K16" s="74"/>
@@ -16377,10 +16422,8 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
       <c r="I17" s="74"/>
       <c r="J17" s="74"/>
       <c r="K17" s="74"/>
@@ -16406,10 +16449,8 @@
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
       <c r="I18" s="74"/>
       <c r="J18" s="74"/>
       <c r="K18" s="74"/>
@@ -16435,10 +16476,8 @@
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
       <c r="I19" s="74"/>
       <c r="J19" s="74"/>
       <c r="K19" s="74"/>
@@ -16464,10 +16503,8 @@
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
       <c r="I20" s="74"/>
       <c r="J20" s="74"/>
       <c r="K20" s="74"/>
@@ -16493,10 +16530,8 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
       <c r="I21" s="74"/>
       <c r="J21" s="74"/>
       <c r="K21" s="74"/>
